--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Slit3-Robo2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Slit3-Robo2.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.044914666666666</v>
+        <v>2.232451333333333</v>
       </c>
       <c r="H2">
-        <v>3.134744</v>
+        <v>6.697354</v>
       </c>
       <c r="I2">
-        <v>0.006668841574421892</v>
+        <v>0.01414074962829973</v>
       </c>
       <c r="J2">
-        <v>0.006668841574421893</v>
+        <v>0.01414074962829973</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1588893333333333</v>
+        <v>2.892869333333334</v>
       </c>
       <c r="N2">
-        <v>0.476668</v>
+        <v>8.678608000000001</v>
       </c>
       <c r="O2">
-        <v>0.6383618698147193</v>
+        <v>0.9698236995656885</v>
       </c>
       <c r="P2">
-        <v>0.6383618698147193</v>
+        <v>0.9698236995656884</v>
       </c>
       <c r="Q2">
-        <v>0.1660257947768888</v>
+        <v>6.458190000359111</v>
       </c>
       <c r="R2">
-        <v>1.494232152992</v>
+        <v>58.123710003232</v>
       </c>
       <c r="S2">
-        <v>0.004257134176946096</v>
+        <v>0.01371403411914978</v>
       </c>
       <c r="T2">
-        <v>0.004257134176946096</v>
+        <v>0.01371403411914978</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.044914666666666</v>
+        <v>2.232451333333333</v>
       </c>
       <c r="H3">
-        <v>3.134744</v>
+        <v>6.697354</v>
       </c>
       <c r="I3">
-        <v>0.006668841574421892</v>
+        <v>0.01414074962829973</v>
       </c>
       <c r="J3">
-        <v>0.006668841574421893</v>
+        <v>0.01414074962829973</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.060942</v>
       </c>
       <c r="O3">
-        <v>0.08161455996678742</v>
+        <v>0.006810193051573731</v>
       </c>
       <c r="P3">
-        <v>0.08161455996678742</v>
+        <v>0.00681019305157373</v>
       </c>
       <c r="Q3">
-        <v>0.02122639653866666</v>
+        <v>0.04535001638533333</v>
       </c>
       <c r="R3">
-        <v>0.191037568848</v>
+        <v>0.408150147468</v>
       </c>
       <c r="S3">
-        <v>0.0005442745705846605</v>
+        <v>9.630123486269065E-05</v>
       </c>
       <c r="T3">
-        <v>0.0005442745705846605</v>
+        <v>9.630123486269064E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.044914666666666</v>
+        <v>2.232451333333333</v>
       </c>
       <c r="H4">
-        <v>3.134744</v>
+        <v>6.697354</v>
       </c>
       <c r="I4">
-        <v>0.006668841574421892</v>
+        <v>0.01414074962829973</v>
       </c>
       <c r="J4">
-        <v>0.006668841574421893</v>
+        <v>0.01414074962829973</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,22 +682,22 @@
         <v>0.209095</v>
       </c>
       <c r="O4">
-        <v>0.2800235702184933</v>
+        <v>0.02336610738273784</v>
       </c>
       <c r="P4">
-        <v>0.2800235702184933</v>
+        <v>0.02336610738273783</v>
       </c>
       <c r="Q4">
-        <v>0.07282881074222221</v>
+        <v>0.1555981371811111</v>
       </c>
       <c r="R4">
-        <v>0.6554592966799999</v>
+        <v>1.40038323463</v>
       </c>
       <c r="S4">
-        <v>0.001867432826891136</v>
+        <v>0.0003304142742872617</v>
       </c>
       <c r="T4">
-        <v>0.001867432826891136</v>
+        <v>0.0003304142742872616</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>383.601051</v>
       </c>
       <c r="I5">
-        <v>0.8160713081836134</v>
+        <v>0.8099327614075106</v>
       </c>
       <c r="J5">
-        <v>0.8160713081836134</v>
+        <v>0.8099327614075106</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1588893333333333</v>
+        <v>2.892869333333334</v>
       </c>
       <c r="N5">
-        <v>0.476668</v>
+        <v>8.678608000000001</v>
       </c>
       <c r="O5">
-        <v>0.6383618698147193</v>
+        <v>0.9698236995656885</v>
       </c>
       <c r="P5">
-        <v>0.6383618698147193</v>
+        <v>0.9698236995656884</v>
       </c>
       <c r="Q5">
-        <v>20.316705086452</v>
+        <v>369.902572224112</v>
       </c>
       <c r="R5">
-        <v>182.850345778068</v>
+        <v>3329.123150017008</v>
       </c>
       <c r="S5">
-        <v>0.5209488061942356</v>
+        <v>0.785491987067686</v>
       </c>
       <c r="T5">
-        <v>0.5209488061942356</v>
+        <v>0.7854919870676859</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>383.601051</v>
       </c>
       <c r="I6">
-        <v>0.8160713081836134</v>
+        <v>0.8099327614075106</v>
       </c>
       <c r="J6">
-        <v>0.8160713081836134</v>
+        <v>0.8099327614075106</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.060942</v>
       </c>
       <c r="O6">
-        <v>0.08161455996678742</v>
+        <v>0.006810193051573731</v>
       </c>
       <c r="P6">
-        <v>0.08161455996678742</v>
+        <v>0.00681019305157373</v>
       </c>
       <c r="Q6">
         <v>2.597490583338</v>
@@ -818,10 +818,10 @@
         <v>23.377415250042</v>
       </c>
       <c r="S6">
-        <v>0.06660330071892617</v>
+        <v>0.005515798463979353</v>
       </c>
       <c r="T6">
-        <v>0.06660330071892617</v>
+        <v>0.005515798463979352</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>383.601051</v>
       </c>
       <c r="I7">
-        <v>0.8160713081836134</v>
+        <v>0.8099327614075106</v>
       </c>
       <c r="J7">
-        <v>0.8160713081836134</v>
+        <v>0.8099327614075106</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,10 +868,10 @@
         <v>0.209095</v>
       </c>
       <c r="O7">
-        <v>0.2800235702184933</v>
+        <v>0.02336610738273784</v>
       </c>
       <c r="P7">
-        <v>0.2800235702184933</v>
+        <v>0.02336610738273783</v>
       </c>
       <c r="Q7">
         <v>8.912117973205</v>
@@ -880,10 +880,10 @@
         <v>80.209061758845</v>
       </c>
       <c r="S7">
-        <v>0.2285192012704517</v>
+        <v>0.01892497587584527</v>
       </c>
       <c r="T7">
-        <v>0.2285192012704517</v>
+        <v>0.01892497587584527</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>27.77415166666667</v>
+        <v>27.77415166666666</v>
       </c>
       <c r="H8">
-        <v>83.32245500000001</v>
+        <v>83.32245499999999</v>
       </c>
       <c r="I8">
-        <v>0.1772598502419647</v>
+        <v>0.1759264889641896</v>
       </c>
       <c r="J8">
-        <v>0.1772598502419647</v>
+        <v>0.1759264889641896</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1588893333333333</v>
+        <v>2.892869333333334</v>
       </c>
       <c r="N8">
-        <v>0.476668</v>
+        <v>8.678608000000001</v>
       </c>
       <c r="O8">
-        <v>0.6383618698147193</v>
+        <v>0.9698236995656885</v>
       </c>
       <c r="P8">
-        <v>0.6383618698147193</v>
+        <v>0.9698236995656884</v>
       </c>
       <c r="Q8">
-        <v>4.413016442215556</v>
+        <v>80.34699161584889</v>
       </c>
       <c r="R8">
-        <v>39.71714797994</v>
+        <v>723.12292454264</v>
       </c>
       <c r="S8">
-        <v>0.1131559294435377</v>
+        <v>0.1706176783788527</v>
       </c>
       <c r="T8">
-        <v>0.1131559294435377</v>
+        <v>0.1706176783788526</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>27.77415166666667</v>
+        <v>27.77415166666666</v>
       </c>
       <c r="H9">
-        <v>83.32245500000001</v>
+        <v>83.32245499999999</v>
       </c>
       <c r="I9">
-        <v>0.1772598502419647</v>
+        <v>0.1759264889641896</v>
       </c>
       <c r="J9">
-        <v>0.1772598502419647</v>
+        <v>0.1759264889641896</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,22 +992,22 @@
         <v>0.060942</v>
       </c>
       <c r="O9">
-        <v>0.08161455996678742</v>
+        <v>0.006810193051573731</v>
       </c>
       <c r="P9">
-        <v>0.08161455996678742</v>
+        <v>0.00681019305157373</v>
       </c>
       <c r="Q9">
-        <v>0.5642041169566666</v>
+        <v>0.5642041169566667</v>
       </c>
       <c r="R9">
         <v>5.07783705261</v>
       </c>
       <c r="S9">
-        <v>0.01446698467727658</v>
+        <v>0.001198093352731687</v>
       </c>
       <c r="T9">
-        <v>0.01446698467727658</v>
+        <v>0.001198093352731686</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.77415166666667</v>
+        <v>27.77415166666666</v>
       </c>
       <c r="H10">
-        <v>83.32245500000001</v>
+        <v>83.32245499999999</v>
       </c>
       <c r="I10">
-        <v>0.1772598502419647</v>
+        <v>0.1759264889641896</v>
       </c>
       <c r="J10">
-        <v>0.1772598502419647</v>
+        <v>0.1759264889641896</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,10 +1054,10 @@
         <v>0.209095</v>
       </c>
       <c r="O10">
-        <v>0.2800235702184933</v>
+        <v>0.02336610738273784</v>
       </c>
       <c r="P10">
-        <v>0.2800235702184933</v>
+        <v>0.02336610738273783</v>
       </c>
       <c r="Q10">
         <v>1.935812080913889</v>
@@ -1066,10 +1066,10 @@
         <v>17.422308728225</v>
       </c>
       <c r="S10">
-        <v>0.0496369361211504</v>
+        <v>0.004110717232605298</v>
       </c>
       <c r="T10">
-        <v>0.0496369361211504</v>
+        <v>0.004110717232605297</v>
       </c>
     </row>
   </sheetData>
